--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.2708946666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.812684</v>
+      </c>
+      <c r="I2">
+        <v>0.1616296696421007</v>
+      </c>
+      <c r="J2">
+        <v>0.1616296696421007</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.071323</v>
-      </c>
-      <c r="H2">
-        <v>0.213969</v>
-      </c>
-      <c r="I2">
-        <v>0.0483071206658679</v>
-      </c>
-      <c r="J2">
-        <v>0.0483071206658679</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N2">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q2">
-        <v>0.006984090805999999</v>
+        <v>0.01161271257066667</v>
       </c>
       <c r="R2">
-        <v>0.062856817254</v>
+        <v>0.104514413136</v>
       </c>
       <c r="S2">
-        <v>0.003556760232812284</v>
+        <v>0.004872498999573775</v>
       </c>
       <c r="T2">
-        <v>0.003556760232812284</v>
+        <v>0.004872498999573776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.159712</v>
       </c>
       <c r="O3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q3">
-        <v>0.02757137965866667</v>
+        <v>0.1047199318897778</v>
       </c>
       <c r="R3">
-        <v>0.248142416928</v>
+        <v>0.942479387008</v>
       </c>
       <c r="S3">
-        <v>0.01404116719809372</v>
+        <v>0.04393872321073763</v>
       </c>
       <c r="T3">
-        <v>0.01404116719809372</v>
+        <v>0.04393872321073763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N4">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O4">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P4">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q4">
-        <v>0.05648829148666666</v>
+        <v>0.2665591781231111</v>
       </c>
       <c r="R4">
-        <v>0.50839462338</v>
+        <v>2.399032603108</v>
       </c>
       <c r="S4">
-        <v>0.0287675682290212</v>
+        <v>0.11184375061627</v>
       </c>
       <c r="T4">
-        <v>0.02876756822902121</v>
+        <v>0.11184375061627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2708946666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.812684</v>
+      </c>
+      <c r="I5">
+        <v>0.1616296696421007</v>
+      </c>
+      <c r="J5">
+        <v>0.1616296696421007</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.071323</v>
-      </c>
-      <c r="H5">
-        <v>0.213969</v>
-      </c>
-      <c r="I5">
-        <v>0.0483071206658679</v>
-      </c>
-      <c r="J5">
-        <v>0.0483071206658679</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N5">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O5">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P5">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q5">
-        <v>0.003812594739333333</v>
+        <v>0.002323012064888889</v>
       </c>
       <c r="R5">
-        <v>0.034313352654</v>
+        <v>0.020907108584</v>
       </c>
       <c r="S5">
-        <v>0.001941625005940697</v>
+        <v>0.000974696815519229</v>
       </c>
       <c r="T5">
-        <v>0.001941625005940697</v>
+        <v>0.0009746968155192291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N6">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q6">
-        <v>0.1036133572026667</v>
+        <v>0.04535954531733333</v>
       </c>
       <c r="R6">
-        <v>0.9325202148239998</v>
+        <v>0.408235907856</v>
       </c>
       <c r="S6">
-        <v>0.05276676359505784</v>
+        <v>0.01903210277830376</v>
       </c>
       <c r="T6">
-        <v>0.05276676359505784</v>
+        <v>0.01903210277830376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.159712</v>
       </c>
       <c r="O7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q7">
         <v>0.4090386692408889</v>
@@ -883,10 +883,10 @@
         <v>3.681348023168</v>
       </c>
       <c r="S7">
-        <v>0.2083095012436828</v>
+        <v>0.171625750188425</v>
       </c>
       <c r="T7">
-        <v>0.2083095012436828</v>
+        <v>0.171625750188425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.174364</v>
       </c>
       <c r="I8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N8">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O8">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P8">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q8">
-        <v>0.8380391501422221</v>
+        <v>1.041186806807556</v>
       </c>
       <c r="R8">
-        <v>7.542352351279999</v>
+        <v>9.370681261268</v>
       </c>
       <c r="S8">
-        <v>0.4267848751629846</v>
+        <v>0.4368644830970776</v>
       </c>
       <c r="T8">
-        <v>0.4267848751629847</v>
+        <v>0.4368644830970776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.174364</v>
       </c>
       <c r="I9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N9">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O9">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P9">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q9">
-        <v>0.05656222858044444</v>
+        <v>0.009073743140444445</v>
       </c>
       <c r="R9">
-        <v>0.5090600572239999</v>
+        <v>0.081663688264</v>
       </c>
       <c r="S9">
-        <v>0.02880522187960842</v>
+        <v>0.003807190103532102</v>
       </c>
       <c r="T9">
-        <v>0.02880522187960842</v>
+        <v>0.003807190103532102</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N10">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q10">
-        <v>0.03397939096933333</v>
+        <v>0.01487539605066667</v>
       </c>
       <c r="R10">
-        <v>0.305814518724</v>
+        <v>0.133878564456</v>
       </c>
       <c r="S10">
-        <v>0.01730454971047603</v>
+        <v>0.006241466146180181</v>
       </c>
       <c r="T10">
-        <v>0.01730454971047603</v>
+        <v>0.006241466146180182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>1.041014</v>
       </c>
       <c r="I11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>1.159712</v>
       </c>
       <c r="O11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q11">
         <v>0.1341418253297778</v>
@@ -1131,10 +1131,10 @@
         <v>1.207276427968</v>
       </c>
       <c r="S11">
-        <v>0.06831387551260387</v>
+        <v>0.05628365515317495</v>
       </c>
       <c r="T11">
-        <v>0.06831387551260387</v>
+        <v>0.05628365515317495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>1.041014</v>
       </c>
       <c r="I12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N12">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O12">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P12">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q12">
-        <v>0.2748300093644445</v>
+        <v>0.3414510883131111</v>
       </c>
       <c r="R12">
-        <v>2.47347008428</v>
+        <v>3.073059794818</v>
       </c>
       <c r="S12">
-        <v>0.1399615891664974</v>
+        <v>0.1432671372932723</v>
       </c>
       <c r="T12">
-        <v>0.1399615891664974</v>
+        <v>0.1432671372932723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,40 +1225,40 @@
         <v>1.041014</v>
       </c>
       <c r="I13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N13">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O13">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P13">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q13">
-        <v>0.01854925012488889</v>
+        <v>0.002975680684888889</v>
       </c>
       <c r="R13">
-        <v>0.166943251124</v>
+        <v>0.026781126164</v>
       </c>
       <c r="S13">
-        <v>0.009446503063221067</v>
+        <v>0.001248545597933434</v>
       </c>
       <c r="T13">
-        <v>0.009446503063221069</v>
+        <v>0.001248545597933434</v>
       </c>
     </row>
   </sheetData>
